--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2779.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2779.xlsx
@@ -354,7 +354,7 @@
         <v>2.431513762934735</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.367067345672857</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2779.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2779.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168691932355953</v>
+        <v>1.398180842399597</v>
       </c>
       <c r="B1">
-        <v>2.431513762934735</v>
+        <v>1.947030901908875</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.460329294204712</v>
       </c>
       <c r="D1">
-        <v>2.367067345672857</v>
+        <v>3.639624357223511</v>
       </c>
       <c r="E1">
-        <v>1.231239931818351</v>
+        <v>0.8988903164863586</v>
       </c>
     </row>
   </sheetData>
